--- a/data/GestureData/Swimming_V01_Pascal_labels.xlsx
+++ b/data/GestureData/Swimming_V01_Pascal_labels.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>real_start</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>round_end</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
@@ -400,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,8 +424,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1.1299999999999999</v>
       </c>
@@ -437,8 +443,11 @@
         <f t="shared" ref="D2:D18" si="1">MROUND(B2,0.05)</f>
         <v>3.3000000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>4.8600000000000003</v>
       </c>
@@ -453,8 +462,11 @@
         <f t="shared" si="1"/>
         <v>7.15</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>8.9600000000000009</v>
       </c>
@@ -469,8 +481,11 @@
         <f t="shared" si="1"/>
         <v>11.350000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>13.02</v>
       </c>
@@ -485,8 +500,11 @@
         <f t="shared" si="1"/>
         <v>15.200000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>16.98</v>
       </c>
@@ -501,8 +519,11 @@
         <f t="shared" si="1"/>
         <v>19.05</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>21.05</v>
       </c>
@@ -517,8 +538,11 @@
         <f t="shared" si="1"/>
         <v>23.150000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>24.98</v>
       </c>
@@ -533,8 +557,11 @@
         <f t="shared" si="1"/>
         <v>27.200000000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>29.17</v>
       </c>
@@ -549,8 +576,11 @@
         <f t="shared" si="1"/>
         <v>31.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>32.97</v>
       </c>
@@ -565,8 +595,11 @@
         <f t="shared" si="1"/>
         <v>35.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>37.049999999999997</v>
       </c>
@@ -581,8 +614,11 @@
         <f t="shared" si="1"/>
         <v>39.150000000000006</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>41</v>
       </c>
@@ -597,8 +633,11 @@
         <f t="shared" si="1"/>
         <v>43.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>44.89</v>
       </c>
@@ -613,8 +652,11 @@
         <f t="shared" si="1"/>
         <v>47.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>49.06</v>
       </c>
@@ -629,8 +671,11 @@
         <f t="shared" si="1"/>
         <v>51.300000000000004</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>53.02</v>
       </c>
@@ -645,8 +690,11 @@
         <f t="shared" si="1"/>
         <v>55.35</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>57</v>
       </c>
@@ -661,8 +709,11 @@
         <f t="shared" si="1"/>
         <v>59.400000000000006</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>61</v>
       </c>
@@ -677,8 +728,11 @@
         <f t="shared" si="1"/>
         <v>63.400000000000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>65.239999999999995</v>
       </c>
@@ -692,6 +746,9 @@
       <c r="D18">
         <f t="shared" si="1"/>
         <v>67.7</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
